--- a/src/examples/figures/DetectionLimitssize.xlsx
+++ b/src/examples/figures/DetectionLimitssize.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>IUPAC Average</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>Az3</t>
+  </si>
+  <si>
+    <t>Ti301</t>
+  </si>
+  <si>
+    <t>Ti302</t>
+  </si>
+  <si>
+    <t>Ti303</t>
   </si>
   <si>
     <t>HehAz11</t>
@@ -524,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,19 +561,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>33.07332389820614</v>
+        <v>33.07332389820814</v>
       </c>
       <c r="C2">
-        <v>31.59012057150301</v>
+        <v>31.59012057150454</v>
       </c>
       <c r="D2">
-        <v>34.43423838386816</v>
+        <v>34.43423838387056</v>
       </c>
       <c r="E2">
-        <v>9.249571842139487</v>
+        <v>9.249571842139472</v>
       </c>
       <c r="F2">
-        <v>15.21643534536987</v>
+        <v>15.21643534537275</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -572,19 +581,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>33.28095436322156</v>
+        <v>33.28095436322197</v>
       </c>
       <c r="C3">
-        <v>31.7619431689108</v>
+        <v>31.76194316891112</v>
       </c>
       <c r="D3">
-        <v>34.67267987718179</v>
+        <v>34.6726798771823</v>
       </c>
       <c r="E3">
-        <v>9.735935170016731</v>
+        <v>9.735935170016655</v>
       </c>
       <c r="F3">
-        <v>15.45514348289387</v>
+        <v>15.45514348289447</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -592,19 +601,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>49.1120169781439</v>
+        <v>49.11201697814393</v>
       </c>
       <c r="C4">
-        <v>46.4249713758503</v>
+        <v>46.42497137585033</v>
       </c>
       <c r="D4">
-        <v>51.53338590130429</v>
+        <v>51.53338590130432</v>
       </c>
       <c r="E4">
-        <v>34.12551972678675</v>
+        <v>34.12551972678683</v>
       </c>
       <c r="F4">
-        <v>26.42016069007442</v>
+        <v>26.42016069007441</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -612,13 +621,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>14.74309303772543</v>
+        <v>14.74309303773133</v>
       </c>
       <c r="D5">
-        <v>19.79154027240044</v>
+        <v>19.7915402724047</v>
       </c>
       <c r="F5">
-        <v>28.77155847870916</v>
+        <v>28.77155847870869</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +635,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>18.47706293078942</v>
+        <v>18.47706293078727</v>
       </c>
       <c r="C6">
-        <v>9.990295659264273</v>
+        <v>9.990295659259248</v>
       </c>
       <c r="D6">
-        <v>22.6494515736488</v>
+        <v>22.64945157364693</v>
       </c>
       <c r="F6">
-        <v>28.46093506143455</v>
+        <v>28.46093506143483</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -643,13 +652,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>11.57650020233443</v>
+        <v>11.57650020234147</v>
       </c>
       <c r="D7">
-        <v>18.00628015002675</v>
+        <v>18.00628015003055</v>
       </c>
       <c r="F7">
-        <v>28.87636559030336</v>
+        <v>28.87636559030302</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -657,13 +666,13 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>16.07456221731454</v>
+        <v>16.07456221732026</v>
       </c>
       <c r="D8">
-        <v>20.85288120030642</v>
+        <v>20.85288120031085</v>
       </c>
       <c r="F8">
-        <v>28.62330276875399</v>
+        <v>28.62330276875344</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -671,16 +680,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>18.49323689700364</v>
+        <v>18.49323689700123</v>
       </c>
       <c r="C9">
-        <v>10.31718513943622</v>
+        <v>10.31718513943089</v>
       </c>
       <c r="D9">
-        <v>22.60521024793956</v>
+        <v>22.60521024793744</v>
       </c>
       <c r="F9">
-        <v>28.49567928023214</v>
+        <v>28.49567928023246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -688,13 +697,13 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>12.98095455882302</v>
+        <v>12.98095455882504</v>
       </c>
       <c r="D10">
-        <v>18.77553098819621</v>
+        <v>18.77553098819747</v>
       </c>
       <c r="F10">
-        <v>28.81839475942756</v>
+        <v>28.81839475942744</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -702,13 +711,13 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>11.91905366777242</v>
+        <v>11.91905366777992</v>
       </c>
       <c r="D11">
-        <v>18.15052147958103</v>
+        <v>18.15052147958525</v>
       </c>
       <c r="F11">
-        <v>28.8765296548377</v>
+        <v>28.87652965483732</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -716,13 +725,13 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>8.950957488743875</v>
+        <v>8.950957488748765</v>
       </c>
       <c r="D12">
-        <v>16.80506893352459</v>
+        <v>16.8050689335264</v>
       </c>
       <c r="F12">
-        <v>28.9790963859347</v>
+        <v>28.97909638593456</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -730,16 +739,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>33.33340539551284</v>
+        <v>33.33340539551181</v>
       </c>
       <c r="C13">
-        <v>30.98904259970895</v>
+        <v>30.98904259970811</v>
       </c>
       <c r="D13">
-        <v>35.38756559201009</v>
+        <v>35.3875655920089</v>
       </c>
       <c r="F13">
-        <v>21.90314162462716</v>
+        <v>21.90314162462788</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -747,16 +756,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>33.32669257679051</v>
+        <v>33.32669257678985</v>
       </c>
       <c r="C14">
-        <v>30.98268025835643</v>
+        <v>30.98268025835589</v>
       </c>
       <c r="D14">
-        <v>35.38053237808835</v>
+        <v>35.38053237808757</v>
       </c>
       <c r="F14">
-        <v>21.9059522911462</v>
+        <v>21.90595229114666</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -764,16 +773,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>33.1805222174298</v>
+        <v>33.18052221743208</v>
       </c>
       <c r="C15">
-        <v>30.84503426142878</v>
+        <v>30.84503426143061</v>
       </c>
       <c r="D15">
-        <v>35.22670070278266</v>
+        <v>35.2267007027853</v>
       </c>
       <c r="F15">
-        <v>21.96848197715041</v>
+        <v>21.96848197714882</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -781,16 +790,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>33.18831363914232</v>
+        <v>33.18831363914121</v>
       </c>
       <c r="C16">
-        <v>30.86890067567612</v>
+        <v>30.86890067567523</v>
       </c>
       <c r="D16">
-        <v>35.222215919059</v>
+        <v>35.22221591905773</v>
       </c>
       <c r="F16">
-        <v>21.9977510707484</v>
+        <v>21.99775107074916</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -798,16 +807,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>33.61996885550646</v>
+        <v>33.61996885550924</v>
       </c>
       <c r="C17">
-        <v>31.23532851785538</v>
+        <v>31.23532851785762</v>
       </c>
       <c r="D17">
-        <v>35.70720357104744</v>
+        <v>35.70720357105067</v>
       </c>
       <c r="F17">
-        <v>21.72927399030452</v>
+        <v>21.72927399030247</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -815,16 +824,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>33.01028651718407</v>
+        <v>33.01028651718367</v>
       </c>
       <c r="C18">
-        <v>30.69695937726636</v>
+        <v>30.69695937726604</v>
       </c>
       <c r="D18">
-        <v>35.03815878343043</v>
+        <v>35.03815878342996</v>
       </c>
       <c r="F18">
-        <v>22.06390936588166</v>
+        <v>22.06390936588192</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -832,16 +841,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>36.13274571771045</v>
+        <v>36.13274571770928</v>
       </c>
       <c r="C19">
-        <v>33.83676652241314</v>
+        <v>33.83676652241223</v>
       </c>
       <c r="D19">
-        <v>38.16901214218515</v>
+        <v>38.16901214218378</v>
       </c>
       <c r="F19">
-        <v>17.61287524111349</v>
+        <v>17.61287524111502</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -849,16 +858,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>36.68310286380017</v>
+        <v>36.68310286379801</v>
       </c>
       <c r="C20">
-        <v>34.31979034162868</v>
+        <v>34.31979034162698</v>
       </c>
       <c r="D20">
-        <v>38.77577681527269</v>
+        <v>38.77577681527016</v>
       </c>
       <c r="F20">
-        <v>17.05177818197177</v>
+        <v>17.05177818197485</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -866,16 +875,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>36.8900875129106</v>
+        <v>36.89008751291254</v>
       </c>
       <c r="C21">
-        <v>34.50573707665148</v>
+        <v>34.50573707665303</v>
       </c>
       <c r="D21">
-        <v>39.00060135599578</v>
+        <v>39.00060135599803</v>
       </c>
       <c r="F21">
-        <v>16.8432365225455</v>
+        <v>16.84323652254272</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -883,16 +892,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>36.66257642480338</v>
+        <v>36.66257642480404</v>
       </c>
       <c r="C22">
-        <v>34.28699567565697</v>
+        <v>34.2869956756575</v>
       </c>
       <c r="D22">
-        <v>38.76471879361632</v>
+        <v>38.76471879361709</v>
       </c>
       <c r="F22">
-        <v>17.01391675202998</v>
+        <v>17.0139167520291</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -900,16 +909,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>37.12730264208869</v>
+        <v>37.12730264208636</v>
       </c>
       <c r="C23">
-        <v>34.70125949237233</v>
+        <v>34.70125949237048</v>
       </c>
       <c r="D23">
-        <v>39.27199583058435</v>
+        <v>39.27199583058161</v>
       </c>
       <c r="F23">
-        <v>16.51695889736399</v>
+        <v>16.51695889736766</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -917,16 +926,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>37.4157742896184</v>
+        <v>37.4157742896182</v>
       </c>
       <c r="C24">
-        <v>34.96266087864647</v>
+        <v>34.96266087864633</v>
       </c>
       <c r="D24">
-        <v>39.58354702181772</v>
+        <v>39.58354702181747</v>
       </c>
       <c r="F24">
-        <v>16.20470106360389</v>
+        <v>16.20470106360429</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -934,16 +943,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>39.08424337096299</v>
+        <v>39.08424337096193</v>
       </c>
       <c r="C25">
-        <v>36.40538473697093</v>
+        <v>36.40538473697008</v>
       </c>
       <c r="D25">
-        <v>41.43897083357168</v>
+        <v>41.43897083357043</v>
       </c>
       <c r="F25">
-        <v>13.46790347153449</v>
+        <v>13.46790347153733</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -951,16 +960,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>38.95601189340391</v>
+        <v>38.9560118934031</v>
       </c>
       <c r="C26">
-        <v>36.30180450747694</v>
+        <v>36.30180450747631</v>
       </c>
       <c r="D26">
-        <v>41.29076207211605</v>
+        <v>41.29076207211511</v>
       </c>
       <c r="F26">
-        <v>13.78221230931379</v>
+        <v>13.78221230931585</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -968,16 +977,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>39.0561583443565</v>
+        <v>39.05615834435839</v>
       </c>
       <c r="C27">
-        <v>36.39056525588823</v>
+        <v>36.39056525588978</v>
       </c>
       <c r="D27">
-        <v>41.40043634177943</v>
+        <v>41.40043634178162</v>
       </c>
       <c r="F27">
-        <v>13.59481953176435</v>
+        <v>13.5948195317597</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -985,16 +994,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>73.23620892634419</v>
+        <v>110.5467658510132</v>
       </c>
       <c r="C28">
-        <v>70.06058722070252</v>
+        <v>101.5013092608464</v>
       </c>
       <c r="D28">
-        <v>76.15800492270155</v>
+        <v>118.3137774506879</v>
+      </c>
+      <c r="E28">
+        <v>68.26145763878591</v>
       </c>
       <c r="F28">
-        <v>23.77684409508425</v>
+        <v>66.29212622283691</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1002,16 +1014,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>73.47010046293727</v>
+        <v>42.50307689888864</v>
       </c>
       <c r="C29">
-        <v>70.25617126664801</v>
+        <v>39.29184754595352</v>
       </c>
       <c r="D29">
-        <v>76.42504684708534</v>
+        <v>45.29093923195073</v>
       </c>
       <c r="F29">
-        <v>23.24167332418459</v>
+        <v>13.0539336532301</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1019,16 +1031,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>73.31810129955672</v>
+        <v>42.56663945320498</v>
       </c>
       <c r="C30">
-        <v>70.06254726460128</v>
+        <v>39.37860957651612</v>
       </c>
       <c r="D30">
-        <v>76.30767983035602</v>
+        <v>45.33757113104036</v>
       </c>
       <c r="F30">
-        <v>22.99032404161238</v>
+        <v>12.9400043573557</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1036,16 +1048,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>73.35674584653883</v>
+        <v>73.23620892633893</v>
       </c>
       <c r="C31">
-        <v>70.09048066198808</v>
+        <v>70.06058722069852</v>
       </c>
       <c r="D31">
-        <v>76.35548149824051</v>
+        <v>76.15800492269523</v>
       </c>
       <c r="F31">
-        <v>22.85583096601056</v>
+        <v>23.77684409509949</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1053,16 +1065,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>73.59559179737319</v>
+        <v>73.47010046294069</v>
       </c>
       <c r="C32">
-        <v>70.28177335106642</v>
+        <v>70.25617126665061</v>
       </c>
       <c r="D32">
-        <v>76.63517089977701</v>
+        <v>76.42504684708943</v>
       </c>
       <c r="F32">
-        <v>22.17098363762677</v>
+        <v>23.24167332417431</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1070,16 +1082,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>73.41043714014926</v>
+        <v>73.3181012995617</v>
       </c>
       <c r="C33">
-        <v>70.13813499410068</v>
+        <v>70.06254726460507</v>
       </c>
       <c r="D33">
-        <v>76.41443984419989</v>
+        <v>76.30767983036202</v>
       </c>
       <c r="F33">
-        <v>22.75031503293393</v>
+        <v>22.99032404159698</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1087,16 +1099,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>75.55990653268501</v>
+        <v>73.35674584653937</v>
       </c>
       <c r="C34">
-        <v>71.94181940613979</v>
+        <v>70.09048066198851</v>
       </c>
       <c r="D34">
-        <v>78.86117600034088</v>
+        <v>76.35548149824118</v>
       </c>
       <c r="F34">
-        <v>14.89682334731184</v>
+        <v>22.85583096600887</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1104,16 +1116,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>75.66640622920603</v>
+        <v>73.59559179736476</v>
       </c>
       <c r="C35">
-        <v>72.02708803175859</v>
+        <v>70.28177335106001</v>
       </c>
       <c r="D35">
-        <v>78.98574834084955</v>
+        <v>76.63517089976688</v>
       </c>
       <c r="F35">
-        <v>14.10243019032914</v>
+        <v>22.17098363765503</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1121,16 +1133,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>75.34551979176821</v>
+        <v>73.41043714015085</v>
       </c>
       <c r="C36">
-        <v>71.75140202934574</v>
+        <v>70.13813499410189</v>
       </c>
       <c r="D36">
-        <v>78.62601423139448</v>
+        <v>76.41443984420181</v>
       </c>
       <c r="F36">
-        <v>15.89864437395421</v>
+        <v>22.75031503292892</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1138,16 +1150,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>75.47265855859801</v>
+        <v>75.55990653269407</v>
       </c>
       <c r="C37">
-        <v>71.86079990836437</v>
+        <v>71.94181940614675</v>
       </c>
       <c r="D37">
-        <v>78.76840936636385</v>
+        <v>78.8611760003517</v>
       </c>
       <c r="F37">
-        <v>15.2433201924967</v>
+        <v>14.89682334724126</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1155,16 +1167,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>75.5215148941323</v>
+        <v>75.6664062291993</v>
       </c>
       <c r="C38">
-        <v>71.90229779601873</v>
+        <v>72.02708803175344</v>
       </c>
       <c r="D38">
-        <v>78.82357709505473</v>
+        <v>78.9857483408415</v>
       </c>
       <c r="F38">
-        <v>14.96251029541708</v>
+        <v>14.10243019038828</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1172,16 +1184,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>75.40495784370189</v>
+        <v>75.34551979176318</v>
       </c>
       <c r="C39">
-        <v>71.79887289361396</v>
+        <v>71.75140202934189</v>
       </c>
       <c r="D39">
-        <v>78.69564329101414</v>
+        <v>78.62601423138844</v>
       </c>
       <c r="F39">
-        <v>15.52128169913077</v>
+        <v>15.89864437398888</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1189,16 +1201,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>78.13221688790769</v>
+        <v>75.47265855860525</v>
       </c>
       <c r="C40">
-        <v>74.12610619927781</v>
+        <v>71.86079990836993</v>
       </c>
       <c r="D40">
-        <v>81.7649139289945</v>
+        <v>78.7684093663725</v>
       </c>
       <c r="F40">
-        <v>19.4112101354374</v>
+        <v>15.24332019244308</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1206,16 +1218,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>78.33839467777142</v>
+        <v>75.52151489412752</v>
       </c>
       <c r="C41">
-        <v>74.30988632206798</v>
+        <v>71.90229779601506</v>
       </c>
       <c r="D41">
-        <v>81.99039482635122</v>
+        <v>78.823577095049</v>
       </c>
       <c r="F41">
-        <v>20.0523554111937</v>
+        <v>14.96251029545425</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1223,16 +1235,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>72.60138967074944</v>
+        <v>75.40495784370722</v>
       </c>
       <c r="C42">
-        <v>69.47213897561953</v>
+        <v>71.79887289361807</v>
       </c>
       <c r="D42">
-        <v>75.48190381802601</v>
+        <v>78.69564329102052</v>
       </c>
       <c r="F42">
-        <v>24.64880777291778</v>
+        <v>15.52128169909286</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1240,16 +1252,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>72.70046135600738</v>
+        <v>78.13221688790533</v>
       </c>
       <c r="C43">
-        <v>69.55466576498669</v>
+        <v>74.12610619927601</v>
       </c>
       <c r="D43">
-        <v>75.59530092704648</v>
+        <v>81.76491392899167</v>
       </c>
       <c r="F43">
-        <v>24.44277075575948</v>
+        <v>19.41121013542553</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1257,16 +1269,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>71.48253217396339</v>
+        <v>78.33839467777329</v>
       </c>
       <c r="C44">
-        <v>68.54310410008252</v>
+        <v>74.30988632206946</v>
       </c>
       <c r="D44">
-        <v>74.19826361830533</v>
+        <v>81.99039482635344</v>
       </c>
       <c r="F44">
-        <v>26.7420770556542</v>
+        <v>20.05235541120219</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1274,16 +1286,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>71.29208814805756</v>
+        <v>72.60138967075817</v>
       </c>
       <c r="C45">
-        <v>68.39270397043221</v>
+        <v>69.47213897562615</v>
       </c>
       <c r="D45">
-        <v>73.97307165908583</v>
+        <v>75.48190381803654</v>
       </c>
       <c r="F45">
-        <v>27.10826491479817</v>
+        <v>24.64880777289482</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1291,16 +1303,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>78.59094746043141</v>
+        <v>72.70046135600911</v>
       </c>
       <c r="C46">
-        <v>74.29923382236444</v>
+        <v>69.55466576498802</v>
       </c>
       <c r="D46">
-        <v>82.45905897253682</v>
+        <v>75.59530092704858</v>
       </c>
       <c r="F46">
-        <v>23.45539538531807</v>
+        <v>24.44277075575481</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1308,16 +1320,67 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>78.75359067416125</v>
+        <v>71.48253217396804</v>
       </c>
       <c r="C47">
-        <v>74.42810844705527</v>
+        <v>68.54310410008603</v>
       </c>
       <c r="D47">
-        <v>82.64990072088143</v>
+        <v>74.19826361831096</v>
       </c>
       <c r="F47">
-        <v>23.97802371686498</v>
+        <v>26.74207705564411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>71.29208814806063</v>
+      </c>
+      <c r="C48">
+        <v>68.39270397043452</v>
+      </c>
+      <c r="D48">
+        <v>73.97307165908956</v>
+      </c>
+      <c r="F48">
+        <v>27.10826491479172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>78.59094746042591</v>
+      </c>
+      <c r="C49">
+        <v>74.29923382236015</v>
+      </c>
+      <c r="D49">
+        <v>82.4590589725303</v>
+      </c>
+      <c r="F49">
+        <v>23.45539538529925</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>78.75359067417116</v>
+      </c>
+      <c r="C50">
+        <v>74.42810844706298</v>
+      </c>
+      <c r="D50">
+        <v>82.64990072089319</v>
+      </c>
+      <c r="F50">
+        <v>23.97802371689743</v>
       </c>
     </row>
   </sheetData>
